--- a/KO.xlsx
+++ b/KO.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C8FB8-FDFD-494B-820F-BA464B3D36F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0284E1B-4341-48B3-B5DB-54BF153DFD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="720" windowWidth="20745" windowHeight="14475" activeTab="1" xr2:uid="{9599B384-CCAB-4BB3-9549-B02BF0BE6AC0}"/>
+    <workbookView xWindow="1740" yWindow="315" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{9599B384-CCAB-4BB3-9549-B02BF0BE6AC0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
-  <si>
-    <t>KO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Price</t>
   </si>
@@ -75,9 +72,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>OPEX</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>Revenue Growth y/y</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -139,13 +130,25 @@
   </si>
   <si>
     <t>Q125</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,9 +157,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,15 +195,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -207,13 +227,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -257,13 +277,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -625,68 +645,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6609EA8F-FA9C-45B7-ACEF-7667150FB35C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="O2" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="O3" s="4">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="O4" s="4">
+        <f>O2*O3</f>
+        <v>309672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <f>D2*D3</f>
-        <v>309672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="O5" s="4">
         <f>10828+2020+1723</f>
         <v>14571</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
         <f>42375+4084+2469</f>
         <v>48928</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <f>D4+D6-D5</f>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4">
+        <f>O4+O6-O5</f>
         <v>344029</v>
       </c>
     </row>
@@ -697,227 +718,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53694DAC-0F21-4FA1-A910-014ED945D2C9}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A2:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:W2" si="0">J2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="V2" s="1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="W2" s="1">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1">
-        <v>2020</v>
-      </c>
-      <c r="I1">
-        <f>H1+1</f>
-        <v>2021</v>
-      </c>
-      <c r="J1">
-        <f t="shared" ref="J1:V1" si="0">I1+1</f>
-        <v>2022</v>
-      </c>
-      <c r="K1">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="L1">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="M1">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="N1">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="O1">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="P1">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="Q1">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="R1">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="S1">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="T1">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="U1">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="V1">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Main!A1" display="Main" xr:uid="{184DC242-6F88-4AB2-89DB-2ADE02B912C3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
